--- a/po_analysis_by_asin/B0BF5FFDH8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF5FFDH8_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,31 +452,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45376</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45390</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -484,55 +484,55 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45397</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45404</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45411</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45432</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45439</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45446</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,57 +540,145 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45481</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45488</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45495</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45509</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45537</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45565</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45593</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B30" t="n">
         <v>26</v>
       </c>
     </row>
@@ -605,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,73 +715,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>44</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BF5FFDH8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF5FFDH8_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -709,7 +710,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -815,6 +816,565 @@
       </c>
       <c r="B14" t="n">
         <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.511080157598952</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.97893227888814</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.849369167887289</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.16038137717783</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.011892318412262</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.82916642283537</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8945938009170535</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.19090457472137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.404622641176621</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42.14357232600431</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4693034198461432</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.18976909060613</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.538738414251331</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41.81139007650135</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.003493266263698</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.36078325807129</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4522213610179129</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40.65722866018895</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1225132077828309</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.24108404309036</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.655170271397111</v>
+      </c>
+      <c r="D12" t="n">
+        <v>41.85051233427591</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.531481979124406</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40.68215166948372</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.068192615017379</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.35477651614787</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.574493359785864</v>
+      </c>
+      <c r="D15" t="n">
+        <v>38.09050362538873</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.5589373010535347</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.56095911678846</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.4148521179254395</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37.93096876152431</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.579845201043167</v>
+      </c>
+      <c r="D18" t="n">
+        <v>38.3540447362445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.345007966441506</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.36031527659766</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.943615987224601</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37.97465373438668</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.392669045156745</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.41615305599542</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.943934781059849</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37.36663733985317</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.400078664331516</v>
+      </c>
+      <c r="D23" t="n">
+        <v>37.08119882646291</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.721105401542294</v>
+      </c>
+      <c r="D24" t="n">
+        <v>36.9912677159565</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.433275280196249</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37.14524257628901</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.327791591962805</v>
+      </c>
+      <c r="D26" t="n">
+        <v>37.355001503103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>17</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.608732959998847</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36.60706496544242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.86414957370561</v>
+      </c>
+      <c r="D28" t="n">
+        <v>35.7449349970389</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.453420981411877</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36.44428593319789</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.488291577872258</v>
+      </c>
+      <c r="D30" t="n">
+        <v>33.89246213633817</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.868057734316496</v>
+      </c>
+      <c r="D31" t="n">
+        <v>33.86374782711688</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.162766669770465</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35.44470483553907</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.059974211077216</v>
+      </c>
+      <c r="D33" t="n">
+        <v>35.54704591711513</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-6.331504660329585</v>
+      </c>
+      <c r="D34" t="n">
+        <v>34.85115046376885</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-6.795306423675837</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34.4614450795025</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-6.100366236110256</v>
+      </c>
+      <c r="D36" t="n">
+        <v>33.55791362056216</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-5.298230501610353</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35.03310956804863</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-6.742043238187273</v>
+      </c>
+      <c r="D38" t="n">
+        <v>34.47915281802167</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BF5FFDH8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF5FFDH8_po_data.xlsx
@@ -829,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,16 +848,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -866,12 +856,6 @@
       <c r="B2" t="n">
         <v>22</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.511080157598952</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.97893227888814</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -880,12 +864,6 @@
       <c r="B3" t="n">
         <v>21</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.849369167887289</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.16038137717783</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -894,12 +872,6 @@
       <c r="B4" t="n">
         <v>21</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.011892318412262</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.82916642283537</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -908,12 +880,6 @@
       <c r="B5" t="n">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.8945938009170535</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.19090457472137</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -922,12 +888,6 @@
       <c r="B6" t="n">
         <v>21</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.404622641176621</v>
-      </c>
-      <c r="D6" t="n">
-        <v>42.14357232600431</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -936,12 +896,6 @@
       <c r="B7" t="n">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.4693034198461432</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40.18976909060613</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -950,12 +904,6 @@
       <c r="B8" t="n">
         <v>21</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.538738414251331</v>
-      </c>
-      <c r="D8" t="n">
-        <v>41.81139007650135</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -964,12 +912,6 @@
       <c r="B9" t="n">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.003493266263698</v>
-      </c>
-      <c r="D9" t="n">
-        <v>41.36078325807129</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -978,12 +920,6 @@
       <c r="B10" t="n">
         <v>21</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.4522213610179129</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40.65722866018895</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -992,12 +928,6 @@
       <c r="B11" t="n">
         <v>21</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1225132077828309</v>
-      </c>
-      <c r="D11" t="n">
-        <v>42.24108404309036</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1006,12 +936,6 @@
       <c r="B12" t="n">
         <v>20</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.655170271397111</v>
-      </c>
-      <c r="D12" t="n">
-        <v>41.85051233427591</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1020,12 +944,6 @@
       <c r="B13" t="n">
         <v>20</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.531481979124406</v>
-      </c>
-      <c r="D13" t="n">
-        <v>40.68215166948372</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1034,12 +952,6 @@
       <c r="B14" t="n">
         <v>19</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.068192615017379</v>
-      </c>
-      <c r="D14" t="n">
-        <v>39.35477651614787</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1048,12 +960,6 @@
       <c r="B15" t="n">
         <v>19</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.574493359785864</v>
-      </c>
-      <c r="D15" t="n">
-        <v>38.09050362538873</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1062,12 +968,6 @@
       <c r="B16" t="n">
         <v>18</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.5589373010535347</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38.56095911678846</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1076,12 +976,6 @@
       <c r="B17" t="n">
         <v>18</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.4148521179254395</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37.93096876152431</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1090,12 +984,6 @@
       <c r="B18" t="n">
         <v>18</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.579845201043167</v>
-      </c>
-      <c r="D18" t="n">
-        <v>38.3540447362445</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1104,12 +992,6 @@
       <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.345007966441506</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37.36031527659766</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1118,12 +1000,6 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.943615987224601</v>
-      </c>
-      <c r="D20" t="n">
-        <v>37.97465373438668</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1132,12 +1008,6 @@
       <c r="B21" t="n">
         <v>18</v>
       </c>
-      <c r="C21" t="n">
-        <v>-4.392669045156745</v>
-      </c>
-      <c r="D21" t="n">
-        <v>36.41615305599542</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1146,12 +1016,6 @@
       <c r="B22" t="n">
         <v>18</v>
       </c>
-      <c r="C22" t="n">
-        <v>-2.943934781059849</v>
-      </c>
-      <c r="D22" t="n">
-        <v>37.36663733985317</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1160,12 +1024,6 @@
       <c r="B23" t="n">
         <v>18</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.400078664331516</v>
-      </c>
-      <c r="D23" t="n">
-        <v>37.08119882646291</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1174,12 +1032,6 @@
       <c r="B24" t="n">
         <v>17</v>
       </c>
-      <c r="C24" t="n">
-        <v>-2.721105401542294</v>
-      </c>
-      <c r="D24" t="n">
-        <v>36.9912677159565</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1188,12 +1040,6 @@
       <c r="B25" t="n">
         <v>17</v>
       </c>
-      <c r="C25" t="n">
-        <v>-3.433275280196249</v>
-      </c>
-      <c r="D25" t="n">
-        <v>37.14524257628901</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1202,12 +1048,6 @@
       <c r="B26" t="n">
         <v>17</v>
       </c>
-      <c r="C26" t="n">
-        <v>-3.327791591962805</v>
-      </c>
-      <c r="D26" t="n">
-        <v>37.355001503103</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1216,12 +1056,6 @@
       <c r="B27" t="n">
         <v>17</v>
       </c>
-      <c r="C27" t="n">
-        <v>-3.608732959998847</v>
-      </c>
-      <c r="D27" t="n">
-        <v>36.60706496544242</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1230,12 +1064,6 @@
       <c r="B28" t="n">
         <v>16</v>
       </c>
-      <c r="C28" t="n">
-        <v>-4.86414957370561</v>
-      </c>
-      <c r="D28" t="n">
-        <v>35.7449349970389</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1244,12 +1072,6 @@
       <c r="B29" t="n">
         <v>16</v>
       </c>
-      <c r="C29" t="n">
-        <v>-3.453420981411877</v>
-      </c>
-      <c r="D29" t="n">
-        <v>36.44428593319789</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1258,12 +1080,6 @@
       <c r="B30" t="n">
         <v>15</v>
       </c>
-      <c r="C30" t="n">
-        <v>-4.488291577872258</v>
-      </c>
-      <c r="D30" t="n">
-        <v>33.89246213633817</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1272,12 +1088,6 @@
       <c r="B31" t="n">
         <v>15</v>
       </c>
-      <c r="C31" t="n">
-        <v>-5.868057734316496</v>
-      </c>
-      <c r="D31" t="n">
-        <v>33.86374782711688</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1286,12 +1096,6 @@
       <c r="B32" t="n">
         <v>15</v>
       </c>
-      <c r="C32" t="n">
-        <v>-5.162766669770465</v>
-      </c>
-      <c r="D32" t="n">
-        <v>35.44470483553907</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1300,12 +1104,6 @@
       <c r="B33" t="n">
         <v>15</v>
       </c>
-      <c r="C33" t="n">
-        <v>-5.059974211077216</v>
-      </c>
-      <c r="D33" t="n">
-        <v>35.54704591711513</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1314,12 +1112,6 @@
       <c r="B34" t="n">
         <v>15</v>
       </c>
-      <c r="C34" t="n">
-        <v>-6.331504660329585</v>
-      </c>
-      <c r="D34" t="n">
-        <v>34.85115046376885</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1328,12 +1120,6 @@
       <c r="B35" t="n">
         <v>15</v>
       </c>
-      <c r="C35" t="n">
-        <v>-6.795306423675837</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34.4614450795025</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1342,12 +1128,6 @@
       <c r="B36" t="n">
         <v>14</v>
       </c>
-      <c r="C36" t="n">
-        <v>-6.100366236110256</v>
-      </c>
-      <c r="D36" t="n">
-        <v>33.55791362056216</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1356,12 +1136,6 @@
       <c r="B37" t="n">
         <v>14</v>
       </c>
-      <c r="C37" t="n">
-        <v>-5.298230501610353</v>
-      </c>
-      <c r="D37" t="n">
-        <v>35.03310956804863</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1369,12 +1143,6 @@
       </c>
       <c r="B38" t="n">
         <v>14</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-6.742043238187273</v>
-      </c>
-      <c r="D38" t="n">
-        <v>34.47915281802167</v>
       </c>
     </row>
   </sheetData>
